--- a/uploads/campeonato-para-testes/etapa-1-teste/Inscritos[Etapa 1 - Teste].xlsx
+++ b/uploads/campeonato-para-testes/etapa-1-teste/Inscritos[Etapa 1 - Teste].xlsx
@@ -76,10 +76,10 @@
     <t>Anuidade</t>
   </si>
   <si>
-    <t>Andreo Vieira</t>
-  </si>
-  <si>
-    <t>H 45 B</t>
+    <t>João Batista Porcella Vieira</t>
+  </si>
+  <si>
+    <t>D 10 N</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <cols>
     <col min="1" max="1" width="12" customWidth="true" style="0"/>
     <col min="2" max="2" width="12" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" customWidth="true" style="0"/>
     <col min="6" max="6" width="12" customWidth="true" style="0"/>
@@ -601,9 +601,7 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
-        <v>1234</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
@@ -611,9 +609,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>152162</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
   </sheetData>
